--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="15">
-        <f>D11*E11</f>
+        <f t="shared" ref="F11:F17" si="2">D11*E11</f>
         <v>2208.8700000000003</v>
       </c>
       <c r="G11" s="16"/>
@@ -837,7 +837,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="14">
-        <f>D12*E12</f>
+        <f t="shared" si="2"/>
         <v>1818.45</v>
       </c>
       <c r="G12" s="16">
@@ -864,7 +864,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="14">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>748.44</v>
       </c>
       <c r="G13" s="16"/>
@@ -881,14 +881,14 @@
         <v>27943</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="D14:D15" si="2">SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D15" si="3">SUM(C14,-C12)</f>
         <v>1621</v>
       </c>
       <c r="E14" s="7">
         <v>4.49</v>
       </c>
       <c r="F14" s="14">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>7278.29</v>
       </c>
       <c r="G14" s="16">
@@ -908,14 +908,14 @@
         <v>17351</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1304</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="14">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>3168.7200000000003</v>
       </c>
       <c r="G15" s="16"/>
@@ -932,14 +932,14 @@
         <v>28906</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:D17" si="3">SUM(C16,-C14)</f>
+        <f t="shared" ref="D16:D17" si="4">SUM(C16,-C14)</f>
         <v>963</v>
       </c>
       <c r="E16" s="7">
         <v>4.49</v>
       </c>
       <c r="F16" s="14">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>4323.87</v>
       </c>
       <c r="G16" s="16">
@@ -959,21 +959,26 @@
         <v>18141</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>790</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="14">
-        <f>D17*E17</f>
+        <f t="shared" si="2"/>
         <v>1919.7</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="17">

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>Нач-ны пени с 08.12.18 по 13.03.19 - 93 дн 5973,80 х 0,1% х 53 = 316,61р.</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>02.04.02020</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -110,15 +110,15 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -168,19 +168,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -214,7 +201,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,11 +214,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -923,7 +914,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
@@ -972,84 +963,129 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43536</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="17">
-        <f>SUM(G2:G17)</f>
-        <v>41778.33</v>
-      </c>
-      <c r="H18" s="17">
-        <f>SUM(H2:H17)</f>
-        <v>42040.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>316.61</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43536</v>
+        <v>43787</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>316.61</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43787</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <v>198.12</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>43973</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <v>29577</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUM(C20,-C16)</f>
+        <v>671</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <v>3012.79</v>
+      </c>
+      <c r="G20" s="16">
+        <f>SUM(F20,F21)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H20" s="16">
+        <v>4753.41</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="16">
-        <f>SUM(G18,G19,G20)</f>
-        <v>42293.060000000005</v>
-      </c>
-      <c r="H21" s="16">
-        <f>SUM(H18,H19,H20)</f>
-        <v>42040.1</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12">
+        <v>18775</v>
+      </c>
+      <c r="D21" s="11">
+        <f>SUM(C21,-C17)</f>
+        <v>634</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="5"/>
+        <v>1540.6200000000001</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="G22" s="16">
+        <f>SUM(G4:G21)</f>
+        <v>46846.47</v>
+      </c>
       <c r="H22" s="16">
-        <f>SUM(H21,-G21)</f>
-        <v>-252.9600000000064</v>
+        <f>SUM(H4:H21)</f>
+        <v>46793.509999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="16">
+        <f>SUM(H22,-G22)</f>
+        <v>-52.960000000006403</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,25 +1063,76 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="10">
+        <v>44014</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>29932</v>
+      </c>
+      <c r="D22" s="11">
+        <f>SUM(C22,-C20)</f>
+        <v>355</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" ref="F22:F23" si="6">D22*E22</f>
+        <v>1593.95</v>
+      </c>
+      <c r="G22" s="16">
+        <f>SUM(F22,F23)</f>
+        <v>2298.65</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2298.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>19065</v>
+      </c>
+      <c r="D23" s="11">
+        <f>SUM(C23,-C21)</f>
+        <v>290</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="6"/>
+        <v>704.7</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="16">
-        <f>SUM(G4:G21)</f>
-        <v>46846.47</v>
-      </c>
-      <c r="H22" s="16">
-        <f>SUM(H4:H21)</f>
-        <v>46793.509999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="16">
+        <f>SUM(G4:G23)</f>
+        <v>49145.120000000003</v>
+      </c>
+      <c r="H24" s="16">
+        <f>SUM(H4:H23)</f>
+        <v>49092.159999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="16">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="2"/>
+      <c r="H25" s="16">
+        <f>SUM(H24,-G24)</f>
         <v>-52.960000000006403</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
         <v>4.49</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" ref="F20:F21" si="5">D20*E20</f>
+        <f t="shared" ref="F20:F23" si="5">D20*E20</f>
         <v>3012.79</v>
       </c>
       <c r="G20" s="16">
@@ -1080,7 +1080,7 @@
         <v>4.49</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" ref="F22:F23" si="6">D22*E22</f>
+        <f t="shared" si="5"/>
         <v>1593.95</v>
       </c>
       <c r="G22" s="16">
@@ -1107,32 +1107,83 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>704.7</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="10">
+        <v>44090</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>30158</v>
+      </c>
+      <c r="D24" s="11">
+        <f>SUM(C24,-C22)</f>
+        <v>226</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" ref="F24:F25" si="6">D24*E24</f>
+        <v>1064.46</v>
+      </c>
+      <c r="G24" s="16">
+        <f>SUM(F24,F25)</f>
+        <v>1281.21</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1281.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12">
+        <v>19150</v>
+      </c>
+      <c r="D25" s="11">
+        <f>SUM(C25,-C23)</f>
+        <v>85</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="6"/>
+        <v>216.74999999999997</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="16">
-        <f>SUM(G4:G23)</f>
-        <v>49145.120000000003</v>
-      </c>
-      <c r="H24" s="16">
-        <f>SUM(H4:H23)</f>
-        <v>49092.159999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="16">
+        <f>SUM(G4:G25)</f>
+        <v>50426.33</v>
+      </c>
+      <c r="H26" s="16">
+        <f>SUM(H4:H25)</f>
+        <v>50373.369999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="16">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="2"/>
+      <c r="H27" s="16">
+        <f>SUM(H26,-G26)</f>
         <v>-52.960000000006403</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
   <si>
     <t>Т1</t>
   </si>
@@ -530,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1165,25 +1165,76 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="10">
+        <v>44140</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>30888</v>
+      </c>
+      <c r="D26" s="11">
+        <f>SUM(C26,-C24)</f>
+        <v>730</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" ref="F26:F27" si="7">D26*E26</f>
+        <v>3438.3</v>
+      </c>
+      <c r="G26" s="16">
+        <f>SUM(F26,F27)</f>
+        <v>5157</v>
+      </c>
+      <c r="H26" s="16">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>19824</v>
+      </c>
+      <c r="D27" s="11">
+        <f>SUM(C27,-C25)</f>
+        <v>674</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="7"/>
+        <v>1718.6999999999998</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="16">
-        <f>SUM(G4:G25)</f>
-        <v>50426.33</v>
-      </c>
-      <c r="H26" s="16">
-        <f>SUM(H4:H25)</f>
-        <v>50373.369999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="16">
+        <f>SUM(G4:G27)</f>
+        <v>55583.33</v>
+      </c>
+      <c r="H28" s="16">
+        <f>SUM(H4:H27)</f>
+        <v>55530.369999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="16">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="2"/>
+      <c r="H29" s="16">
+        <f>SUM(H28,-G28)</f>
         <v>-52.960000000006403</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -100,12 +100,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -148,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,6 +187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,7 +500,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="14">
         <v>44196</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -552,7 +561,7 @@
         <v>4.71</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F13" si="1">D2*E2</f>
+        <f t="shared" ref="F2:F11" si="1">D2*E2</f>
         <v>6504.51</v>
       </c>
       <c r="G2" s="13">

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -100,7 +100,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -188,6 +194,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -543,84 +552,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44196</v>
+        <v>44295</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>32269</v>
+        <v>36327</v>
       </c>
       <c r="D2" s="9">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
-        <v>1381</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>2401</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F11" si="1">D2*E2</f>
-        <v>6504.51</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>11308.71</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>9215.16</v>
+        <v>14911.859999999999</v>
       </c>
       <c r="H2" s="13">
-        <v>9215.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14911.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>20887</v>
+        <v>23650</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>1063</v>
+        <v>1413</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>2710.6499999999996</v>
+        <v>3603.1499999999996</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>44140</v>
+      <c r="A4" s="15">
+        <v>44235</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>30888</v>
+        <v>33926</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>730</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>1657</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" si="1"/>
-        <v>3438.3</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>7804.47</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>5157</v>
+        <v>11246.97</v>
       </c>
       <c r="H4" s="13">
-        <v>5157</v>
+        <v>11246.97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>19824</v>
+        <v>22237</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>674</v>
+        <f t="shared" si="2"/>
+        <v>1350</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="1"/>
-        <v>1718.6999999999998</v>
+        <f t="shared" si="3"/>
+        <v>3442.4999999999995</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44090</v>
+      <c r="A6" s="15">
+        <v>44196</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>30158</v>
+        <v>32269</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>226</v>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>1381</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="1"/>
-        <v>1064.46</v>
+        <f t="shared" ref="F6:F15" si="5">D6*E6</f>
+        <v>6504.51</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1281.21</v>
+        <v>9215.16</v>
       </c>
       <c r="H6" s="13">
-        <v>1281.21</v>
+        <v>9215.16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>19150</v>
+        <v>20887</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>1063</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="1"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="5"/>
+        <v>2710.6499999999996</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>44014</v>
+        <v>44140</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>29932</v>
+        <v>30888</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>355</v>
+        <f t="shared" si="4"/>
+        <v>730</v>
       </c>
       <c r="E8" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="1"/>
-        <v>1593.95</v>
+        <f t="shared" si="5"/>
+        <v>3438.3</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>2298.65</v>
+        <v>5157</v>
       </c>
       <c r="H8" s="13">
-        <v>2298.65</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>19065</v>
+        <v>19824</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>290</v>
+        <f t="shared" si="4"/>
+        <v>674</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
-        <v>704.7</v>
+        <f t="shared" si="5"/>
+        <v>1718.6999999999998</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>43973</v>
+        <v>44090</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>29577</v>
+        <v>30158</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(C10,-C12)</f>
-        <v>671</v>
+        <f t="shared" si="4"/>
+        <v>226</v>
       </c>
       <c r="E10" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
-        <v>3012.79</v>
+        <f t="shared" si="5"/>
+        <v>1064.46</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>4553.41</v>
+        <v>1281.21</v>
       </c>
       <c r="H10" s="13">
-        <v>4553.41</v>
+        <v>1281.21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,37 +791,50 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>18775</v>
+        <v>19150</v>
       </c>
       <c r="D11" s="9">
-        <f>SUM(C11,-C13)</f>
-        <v>634</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
-        <v>1540.6200000000001</v>
+        <f t="shared" si="5"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
+      <c r="A12" s="8">
+        <v>44014</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>28906</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+        <v>29932</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="4"/>
+        <v>355</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="5"/>
+        <v>1593.95</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>2298.65</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2298.65</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -820,34 +842,123 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>18141</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="12"/>
+        <v>19065</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>704.7</v>
+      </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="8">
+        <v>43973</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>29577</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(C14,-C16)</f>
+        <v>671</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="5"/>
+        <v>3012.79</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4553.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>18775</v>
+      </c>
+      <c r="D15" s="9">
+        <f>SUM(C15,-C17)</f>
+        <v>634</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>1540.6200000000001</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>28906</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>18141</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
+      <c r="G18" s="13">
+        <f>SUM(G6:G17)</f>
         <v>22505.43</v>
       </c>
-      <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
+      <c r="H18" s="13">
+        <f>SUM(H6:H17)</f>
         <v>22505.43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13">
-        <f>SUM(H14,-G14)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -506,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44295</v>
+        <v>44348</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>36327</v>
+        <v>37133</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>2401</v>
+        <v>806</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>11308.71</v>
+        <v>3796.2599999999998</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>14911.859999999999</v>
+        <v>4056.3599999999997</v>
       </c>
       <c r="H2" s="13">
-        <v>14911.86</v>
+        <v>4056.36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>23650</v>
+        <v>23752</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>1413</v>
+        <v>102</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>3603.1499999999996</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44235</v>
+        <v>44295</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>33926</v>
+        <v>36327</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>1657</v>
+        <v>2401</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>7804.47</v>
+        <v>11308.71</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>11246.97</v>
+        <v>14911.859999999999</v>
       </c>
       <c r="H4" s="13">
-        <v>11246.97</v>
+        <v>14911.86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>22237</v>
+        <v>23650</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>1413</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="3"/>
-        <v>3442.4999999999995</v>
+        <v>3603.1499999999996</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44196</v>
+        <v>44235</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>32269</v>
+        <v>33926</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
-        <v>1381</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>1657</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" ref="F6:F15" si="5">D6*E6</f>
-        <v>6504.51</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>7804.47</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
       <c r="H6" s="13">
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>20887</v>
+        <v>22237</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="4"/>
-        <v>1063</v>
+        <v>1350</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>2710.6499999999996</v>
+        <v>3442.4999999999995</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44140</v>
+      <c r="A8" s="15">
+        <v>44196</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>30888</v>
+        <v>32269</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="4"/>
-        <v>730</v>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>1381</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="5"/>
-        <v>3438.3</v>
+        <f t="shared" ref="F8:F17" si="7">D8*E8</f>
+        <v>6504.51</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
       <c r="H8" s="13">
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>19824</v>
+        <v>20887</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="4"/>
-        <v>674</v>
+        <f t="shared" si="6"/>
+        <v>1063</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="5"/>
-        <v>1718.6999999999998</v>
+        <f t="shared" si="7"/>
+        <v>2710.6499999999996</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>30158</v>
+        <v>30888</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="4"/>
-        <v>226</v>
+        <f t="shared" si="6"/>
+        <v>730</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="5"/>
-        <v>1064.46</v>
+        <f t="shared" si="7"/>
+        <v>3438.3</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
       <c r="H10" s="13">
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,49 +791,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>19150</v>
+        <v>19824</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f t="shared" si="6"/>
+        <v>674</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="5"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="7"/>
+        <v>1718.6999999999998</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>44014</v>
+        <v>44090</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>29932</v>
+        <v>30158</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="4"/>
-        <v>355</v>
+        <f t="shared" si="6"/>
+        <v>226</v>
       </c>
       <c r="E12" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="5"/>
-        <v>1593.95</v>
+        <f t="shared" si="7"/>
+        <v>1064.46</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
       <c r="H12" s="13">
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,49 +842,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>19065</v>
+        <v>19150</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="4"/>
-        <v>290</v>
+        <f t="shared" si="6"/>
+        <v>85</v>
       </c>
       <c r="E13" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="5"/>
-        <v>704.7</v>
+        <f t="shared" si="7"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>43973</v>
+        <v>44014</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>29577</v>
+        <v>29932</v>
       </c>
       <c r="D14" s="9">
-        <f>SUM(C14,-C16)</f>
-        <v>671</v>
+        <f t="shared" si="6"/>
+        <v>355</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="5"/>
-        <v>3012.79</v>
+        <f t="shared" si="7"/>
+        <v>1593.95</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
       <c r="H14" s="13">
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,37 +893,50 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>18775</v>
+        <v>19065</v>
       </c>
       <c r="D15" s="9">
-        <f>SUM(C15,-C17)</f>
-        <v>634</v>
+        <f t="shared" si="6"/>
+        <v>290</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="5"/>
-        <v>1540.6200000000001</v>
+        <f t="shared" si="7"/>
+        <v>704.7</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>12</v>
+      <c r="A16" s="8">
+        <v>43973</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>28906</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+        <v>29577</v>
+      </c>
+      <c r="D16" s="9">
+        <f>SUM(C16,-C18)</f>
+        <v>671</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="7"/>
+        <v>3012.79</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4553.41</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -931,34 +944,72 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>18141</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="12"/>
+        <v>18775</v>
+      </c>
+      <c r="D17" s="9">
+        <f>SUM(C17,-C19)</f>
+        <v>634</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="7"/>
+        <v>1540.6200000000001</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>28906</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>18141</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(G6:G17)</f>
+      <c r="G20" s="13">
+        <f>SUM(G8:G19)</f>
         <v>22505.43</v>
       </c>
-      <c r="H18" s="13">
-        <f>SUM(H6:H17)</f>
+      <c r="H20" s="13">
+        <f>SUM(H8:H19)</f>
         <v>22505.43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="13">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="2"/>
+      <c r="H21" s="13">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -506,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>37133</v>
+        <v>37238</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>806</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6">
         <v>4.71</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>3796.2599999999998</v>
+        <v>494.55</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>4056.3599999999997</v>
+        <v>599.1</v>
       </c>
       <c r="H2" s="13">
-        <v>4056.36</v>
+        <v>599.1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>23752</v>
+        <v>23793</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>260.09999999999997</v>
+        <v>104.55</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44295</v>
+        <v>44348</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>36327</v>
+        <v>37133</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>2401</v>
+        <v>806</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>11308.71</v>
+        <v>3796.2599999999998</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>14911.859999999999</v>
+        <v>4056.3599999999997</v>
       </c>
       <c r="H4" s="13">
-        <v>14911.86</v>
+        <v>4056.36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>23650</v>
+        <v>23752</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>1413</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="3"/>
-        <v>3603.1499999999996</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44235</v>
+        <v>44295</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>33926</v>
+        <v>36327</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>1657</v>
+        <v>2401</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>7804.47</v>
+        <v>11308.71</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>11246.97</v>
+        <v>14911.859999999999</v>
       </c>
       <c r="H6" s="13">
-        <v>11246.97</v>
+        <v>14911.86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>22237</v>
+        <v>23650</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="4"/>
-        <v>1350</v>
+        <v>1413</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>3442.4999999999995</v>
+        <v>3603.1499999999996</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44196</v>
+        <v>44235</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>32269</v>
+        <v>33926</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
-        <v>1381</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>1657</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" ref="F8:F17" si="7">D8*E8</f>
-        <v>6504.51</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>7804.47</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
       <c r="H8" s="13">
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>20887</v>
+        <v>22237</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="6"/>
-        <v>1063</v>
+        <v>1350</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="7"/>
-        <v>2710.6499999999996</v>
+        <v>3442.4999999999995</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>44140</v>
+      <c r="A10" s="15">
+        <v>44196</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>30888</v>
+        <v>32269</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="6"/>
-        <v>730</v>
+        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
+        <v>1381</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="7"/>
-        <v>3438.3</v>
+        <f t="shared" ref="F10:F19" si="9">D10*E10</f>
+        <v>6504.51</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
       <c r="H10" s="13">
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,49 +791,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>19824</v>
+        <v>20887</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="6"/>
-        <v>674</v>
+        <f t="shared" si="8"/>
+        <v>1063</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="7"/>
-        <v>1718.6999999999998</v>
+        <f t="shared" si="9"/>
+        <v>2710.6499999999996</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>30158</v>
+        <v>30888</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="6"/>
-        <v>226</v>
+        <f t="shared" si="8"/>
+        <v>730</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="7"/>
-        <v>1064.46</v>
+        <f t="shared" si="9"/>
+        <v>3438.3</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
       <c r="H12" s="13">
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,49 +842,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>19150</v>
+        <v>19824</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="6"/>
-        <v>85</v>
+        <f t="shared" si="8"/>
+        <v>674</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="7"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="9"/>
+        <v>1718.6999999999998</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44014</v>
+        <v>44090</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>29932</v>
+        <v>30158</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="6"/>
-        <v>355</v>
+        <f t="shared" si="8"/>
+        <v>226</v>
       </c>
       <c r="E14" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="7"/>
-        <v>1593.95</v>
+        <f t="shared" si="9"/>
+        <v>1064.46</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
       <c r="H14" s="13">
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,49 +893,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>19065</v>
+        <v>19150</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="6"/>
-        <v>290</v>
+        <f t="shared" si="8"/>
+        <v>85</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="7"/>
-        <v>704.7</v>
+        <f t="shared" si="9"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>43973</v>
+        <v>44014</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>29577</v>
+        <v>29932</v>
       </c>
       <c r="D16" s="9">
-        <f>SUM(C16,-C18)</f>
-        <v>671</v>
+        <f t="shared" si="8"/>
+        <v>355</v>
       </c>
       <c r="E16" s="6">
         <v>4.49</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="7"/>
-        <v>3012.79</v>
+        <f t="shared" si="9"/>
+        <v>1593.95</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
       <c r="H16" s="13">
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,37 +944,50 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>18775</v>
+        <v>19065</v>
       </c>
       <c r="D17" s="9">
-        <f>SUM(C17,-C19)</f>
-        <v>634</v>
+        <f t="shared" si="8"/>
+        <v>290</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="7"/>
-        <v>1540.6200000000001</v>
+        <f t="shared" si="9"/>
+        <v>704.7</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
+      <c r="A18" s="8">
+        <v>43973</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="10">
-        <v>28906</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+        <v>29577</v>
+      </c>
+      <c r="D18" s="9">
+        <f>SUM(C18,-C20)</f>
+        <v>671</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="9"/>
+        <v>3012.79</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H18" s="13">
+        <v>4553.41</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -982,34 +995,72 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>18141</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="12"/>
+        <v>18775</v>
+      </c>
+      <c r="D19" s="9">
+        <f>SUM(C19,-C21)</f>
+        <v>634</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="9"/>
+        <v>1540.6200000000001</v>
+      </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>28906</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>18141</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="13">
-        <f>SUM(G8:G19)</f>
+      <c r="G22" s="13">
+        <f>SUM(G10:G21)</f>
         <v>22505.43</v>
       </c>
-      <c r="H20" s="13">
-        <f>SUM(H8:H19)</f>
+      <c r="H22" s="13">
+        <f>SUM(H10:H21)</f>
         <v>22505.43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="13">
+        <f>SUM(H22,-G22)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -506,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44378</v>
+        <v>44453</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>37238</v>
+        <v>37612</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>105</v>
+        <v>374</v>
       </c>
       <c r="E2" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>494.55</v>
+        <v>1855.04</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>599.1</v>
+        <v>2458.04</v>
       </c>
       <c r="H2" s="13">
-        <v>599.1</v>
+        <v>2458.04</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>23793</v>
+        <v>24018</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>104.55</v>
+        <v>603</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>37133</v>
+        <v>37238</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>806</v>
+        <v>105</v>
       </c>
       <c r="E4" s="6">
         <v>4.71</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>3796.2599999999998</v>
+        <v>494.55</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>4056.3599999999997</v>
+        <v>599.1</v>
       </c>
       <c r="H4" s="13">
-        <v>4056.36</v>
+        <v>599.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>23752</v>
+        <v>23793</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="3"/>
-        <v>260.09999999999997</v>
+        <v>104.55</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44295</v>
+        <v>44348</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>36327</v>
+        <v>37133</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>2401</v>
+        <v>806</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>11308.71</v>
+        <v>3796.2599999999998</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>14911.859999999999</v>
+        <v>4056.3599999999997</v>
       </c>
       <c r="H6" s="13">
-        <v>14911.86</v>
+        <v>4056.36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>23650</v>
+        <v>23752</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="4"/>
-        <v>1413</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>3603.1499999999996</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44235</v>
+        <v>44295</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>33926</v>
+        <v>36327</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>1657</v>
+        <v>2401</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>7804.47</v>
+        <v>11308.71</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>11246.97</v>
+        <v>14911.859999999999</v>
       </c>
       <c r="H8" s="13">
-        <v>11246.97</v>
+        <v>14911.86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>22237</v>
+        <v>23650</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="6"/>
-        <v>1350</v>
+        <v>1413</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="7"/>
-        <v>3442.4999999999995</v>
+        <v>3603.1499999999996</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44196</v>
+        <v>44235</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>32269</v>
+        <v>33926</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ref="D10:D17" si="8">SUM(C10,-C12)</f>
-        <v>1381</v>
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
+        <v>1657</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:F19" si="9">D10*E10</f>
-        <v>6504.51</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>7804.47</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
       <c r="H10" s="13">
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,49 +791,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>20887</v>
+        <v>22237</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="8"/>
-        <v>1063</v>
+        <v>1350</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="9"/>
-        <v>2710.6499999999996</v>
+        <v>3442.4999999999995</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>44140</v>
+      <c r="A12" s="15">
+        <v>44196</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>30888</v>
+        <v>32269</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="8"/>
-        <v>730</v>
+        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
+        <v>1381</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="9"/>
-        <v>3438.3</v>
+        <f t="shared" ref="F12:F21" si="11">D12*E12</f>
+        <v>6504.51</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
       <c r="H12" s="13">
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,49 +842,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>19824</v>
+        <v>20887</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="8"/>
-        <v>674</v>
+        <f t="shared" si="10"/>
+        <v>1063</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="9"/>
-        <v>1718.6999999999998</v>
+        <f t="shared" si="11"/>
+        <v>2710.6499999999996</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>30158</v>
+        <v>30888</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="8"/>
-        <v>226</v>
+        <f t="shared" si="10"/>
+        <v>730</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="9"/>
-        <v>1064.46</v>
+        <f t="shared" si="11"/>
+        <v>3438.3</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
       <c r="H14" s="13">
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,49 +893,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>19150</v>
+        <v>19824</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="8"/>
-        <v>85</v>
+        <f t="shared" si="10"/>
+        <v>674</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="9"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="11"/>
+        <v>1718.6999999999998</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44014</v>
+        <v>44090</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>29932</v>
+        <v>30158</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="8"/>
-        <v>355</v>
+        <f t="shared" si="10"/>
+        <v>226</v>
       </c>
       <c r="E16" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="9"/>
-        <v>1593.95</v>
+        <f t="shared" si="11"/>
+        <v>1064.46</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
       <c r="H16" s="13">
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,49 +944,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>19065</v>
+        <v>19150</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="8"/>
-        <v>290</v>
+        <f t="shared" si="10"/>
+        <v>85</v>
       </c>
       <c r="E17" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="9"/>
-        <v>704.7</v>
+        <f t="shared" si="11"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>43973</v>
+        <v>44014</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="10">
-        <v>29577</v>
+        <v>29932</v>
       </c>
       <c r="D18" s="9">
-        <f>SUM(C18,-C20)</f>
-        <v>671</v>
+        <f t="shared" si="10"/>
+        <v>355</v>
       </c>
       <c r="E18" s="6">
         <v>4.49</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="9"/>
-        <v>3012.79</v>
+        <f t="shared" si="11"/>
+        <v>1593.95</v>
       </c>
       <c r="G18" s="13">
         <f>SUM(F18,F19)</f>
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
       <c r="H18" s="13">
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,37 +995,50 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>18775</v>
+        <v>19065</v>
       </c>
       <c r="D19" s="9">
-        <f>SUM(C19,-C21)</f>
-        <v>634</v>
+        <f t="shared" si="10"/>
+        <v>290</v>
       </c>
       <c r="E19" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="9"/>
-        <v>1540.6200000000001</v>
+        <f t="shared" si="11"/>
+        <v>704.7</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
+      <c r="A20" s="8">
+        <v>43973</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="10">
-        <v>28906</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+        <v>29577</v>
+      </c>
+      <c r="D20" s="9">
+        <f>SUM(C20,-C22)</f>
+        <v>671</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="11"/>
+        <v>3012.79</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(F20,F21)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4553.41</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -1033,34 +1046,72 @@
         <v>1</v>
       </c>
       <c r="C21" s="10">
-        <v>18141</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="12"/>
+        <v>18775</v>
+      </c>
+      <c r="D21" s="9">
+        <f>SUM(C21,-C23)</f>
+        <v>634</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="11"/>
+        <v>1540.6200000000001</v>
+      </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>28906</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>18141</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="13">
-        <f>SUM(G10:G21)</f>
+      <c r="G24" s="13">
+        <f>SUM(G12:G23)</f>
         <v>22505.43</v>
       </c>
-      <c r="H22" s="13">
-        <f>SUM(H10:H21)</f>
+      <c r="H24" s="13">
+        <f>SUM(H12:H23)</f>
         <v>22505.43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="2"/>
+      <c r="H25" s="13">
+        <f>SUM(H24,-G24)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/207ee.xlsx
+++ b/sputnik/personal/ee/207ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -506,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,31 +554,31 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>44453</v>
+        <v>44544</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10">
-        <v>37612</v>
+        <v>38835</v>
       </c>
       <c r="D2" s="9">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>374</v>
+        <v>1223</v>
       </c>
       <c r="E2" s="6">
         <v>4.96</v>
       </c>
       <c r="F2" s="12">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1855.04</v>
+        <v>6066.08</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>2458.04</v>
+        <v>8598.68</v>
       </c>
       <c r="H2" s="13">
-        <v>2458.04</v>
+        <v>8598.68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,49 +587,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="10">
-        <v>24018</v>
+        <v>24963</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>945</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="12">
         <f t="shared" si="1"/>
-        <v>603</v>
+        <v>2532.6000000000004</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>44378</v>
+        <v>44453</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>37238</v>
+        <v>37612</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>105</v>
+        <v>374</v>
       </c>
       <c r="E4" s="6">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>494.55</v>
+        <v>1855.04</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>599.1</v>
+        <v>2458.04</v>
       </c>
       <c r="H4" s="13">
-        <v>599.1</v>
+        <v>2458.04</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,49 +638,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>23793</v>
+        <v>24018</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="3"/>
-        <v>104.55</v>
+        <v>603</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10">
-        <v>37133</v>
+        <v>37238</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>806</v>
+        <v>105</v>
       </c>
       <c r="E6" s="6">
         <v>4.71</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>3796.2599999999998</v>
+        <v>494.55</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>4056.3599999999997</v>
+        <v>599.1</v>
       </c>
       <c r="H6" s="13">
-        <v>4056.36</v>
+        <v>599.1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,49 +689,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="10">
-        <v>23752</v>
+        <v>23793</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="5"/>
-        <v>260.09999999999997</v>
+        <v>104.55</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>44295</v>
+        <v>44348</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>36327</v>
+        <v>37133</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>2401</v>
+        <v>806</v>
       </c>
       <c r="E8" s="6">
         <v>4.71</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>11308.71</v>
+        <v>3796.2599999999998</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>14911.859999999999</v>
+        <v>4056.3599999999997</v>
       </c>
       <c r="H8" s="13">
-        <v>14911.86</v>
+        <v>4056.36</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -740,49 +740,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>23650</v>
+        <v>23752</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="6"/>
-        <v>1413</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="7"/>
-        <v>3603.1499999999996</v>
+        <v>260.09999999999997</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>44235</v>
+        <v>44295</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>33926</v>
+        <v>36327</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
-        <v>1657</v>
+        <v>2401</v>
       </c>
       <c r="E10" s="6">
         <v>4.71</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>7804.47</v>
+        <v>11308.71</v>
       </c>
       <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>11246.97</v>
+        <v>14911.859999999999</v>
       </c>
       <c r="H10" s="13">
-        <v>11246.97</v>
+        <v>14911.86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,49 +791,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <v>22237</v>
+        <v>23650</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="8"/>
-        <v>1350</v>
+        <v>1413</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="9"/>
-        <v>3442.4999999999995</v>
+        <v>3603.1499999999996</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>44196</v>
+        <v>44235</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10">
-        <v>32269</v>
+        <v>33926</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:D19" si="10">SUM(C12,-C14)</f>
-        <v>1381</v>
+        <f t="shared" ref="D12:D13" si="10">SUM(C12,-C14)</f>
+        <v>1657</v>
       </c>
       <c r="E12" s="6">
         <v>4.71</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" ref="F12:F21" si="11">D12*E12</f>
-        <v>6504.51</v>
+        <f t="shared" ref="F12:F13" si="11">D12*E12</f>
+        <v>7804.47</v>
       </c>
       <c r="G12" s="13">
         <f>SUM(F12,F13)</f>
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
       <c r="H12" s="13">
-        <v>9215.16</v>
+        <v>11246.97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,49 +842,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>20887</v>
+        <v>22237</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="10"/>
-        <v>1063</v>
+        <v>1350</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="11"/>
-        <v>2710.6499999999996</v>
+        <v>3442.4999999999995</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44140</v>
+      <c r="A14" s="15">
+        <v>44196</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>30888</v>
+        <v>32269</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="10"/>
-        <v>730</v>
+        <f t="shared" ref="D14:D21" si="12">SUM(C14,-C16)</f>
+        <v>1381</v>
       </c>
       <c r="E14" s="6">
         <v>4.71</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="11"/>
-        <v>3438.3</v>
+        <f t="shared" ref="F14:F23" si="13">D14*E14</f>
+        <v>6504.51</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(F14,F15)</f>
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
       <c r="H14" s="13">
-        <v>5157</v>
+        <v>9215.16</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,49 +893,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>19824</v>
+        <v>20887</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="10"/>
-        <v>674</v>
+        <f t="shared" si="12"/>
+        <v>1063</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="11"/>
-        <v>1718.6999999999998</v>
+        <f t="shared" si="13"/>
+        <v>2710.6499999999996</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>44090</v>
+        <v>44140</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>30158</v>
+        <v>30888</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="10"/>
-        <v>226</v>
+        <f t="shared" si="12"/>
+        <v>730</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="11"/>
-        <v>1064.46</v>
+        <f t="shared" si="13"/>
+        <v>3438.3</v>
       </c>
       <c r="G16" s="13">
         <f>SUM(F16,F17)</f>
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
       <c r="H16" s="13">
-        <v>1281.21</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -944,49 +944,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="10">
-        <v>19150</v>
+        <v>19824</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" si="10"/>
-        <v>85</v>
+        <f t="shared" si="12"/>
+        <v>674</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="11"/>
-        <v>216.74999999999997</v>
+        <f t="shared" si="13"/>
+        <v>1718.6999999999998</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>44014</v>
+        <v>44090</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="10">
-        <v>29932</v>
+        <v>30158</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="10"/>
-        <v>355</v>
+        <f t="shared" si="12"/>
+        <v>226</v>
       </c>
       <c r="E18" s="6">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="11"/>
-        <v>1593.95</v>
+        <f t="shared" si="13"/>
+        <v>1064.46</v>
       </c>
       <c r="G18" s="13">
         <f>SUM(F18,F19)</f>
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
       <c r="H18" s="13">
-        <v>2298.65</v>
+        <v>1281.21</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,49 +995,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="10">
-        <v>19065</v>
+        <v>19150</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="10"/>
-        <v>290</v>
+        <f t="shared" si="12"/>
+        <v>85</v>
       </c>
       <c r="E19" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="11"/>
-        <v>704.7</v>
+        <f t="shared" si="13"/>
+        <v>216.74999999999997</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>43973</v>
+        <v>44014</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="10">
-        <v>29577</v>
+        <v>29932</v>
       </c>
       <c r="D20" s="9">
-        <f>SUM(C20,-C22)</f>
-        <v>671</v>
+        <f t="shared" si="12"/>
+        <v>355</v>
       </c>
       <c r="E20" s="6">
         <v>4.49</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="11"/>
-        <v>3012.79</v>
+        <f t="shared" si="13"/>
+        <v>1593.95</v>
       </c>
       <c r="G20" s="13">
         <f>SUM(F20,F21)</f>
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
       <c r="H20" s="13">
-        <v>4553.41</v>
+        <v>2298.65</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,37 +1046,50 @@
         <v>1</v>
       </c>
       <c r="C21" s="10">
-        <v>18775</v>
+        <v>19065</v>
       </c>
       <c r="D21" s="9">
-        <f>SUM(C21,-C23)</f>
-        <v>634</v>
+        <f t="shared" si="12"/>
+        <v>290</v>
       </c>
       <c r="E21" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="11"/>
-        <v>1540.6200000000001</v>
+        <f t="shared" si="13"/>
+        <v>704.7</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>12</v>
+      <c r="A22" s="8">
+        <v>43973</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="10">
-        <v>28906</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+        <v>29577</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(C22,-C24)</f>
+        <v>671</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="13"/>
+        <v>3012.79</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(F22,F23)</f>
+        <v>4553.41</v>
+      </c>
+      <c r="H22" s="13">
+        <v>4553.41</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -1084,34 +1097,72 @@
         <v>1</v>
       </c>
       <c r="C23" s="10">
-        <v>18141</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="12"/>
+        <v>18775</v>
+      </c>
+      <c r="D23" s="9">
+        <f>SUM(C23,-C25)</f>
+        <v>634</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="13"/>
+        <v>1540.6200000000001</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>28906</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>18141</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13">
-        <f>SUM(G12:G23)</f>
+      <c r="G26" s="13">
+        <f>SUM(G14:G25)</f>
         <v>22505.43</v>
       </c>
-      <c r="H24" s="13">
-        <f>SUM(H12:H23)</f>
+      <c r="H26" s="13">
+        <f>SUM(H14:H25)</f>
         <v>22505.43</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="13">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="2"/>
+      <c r="H27" s="13">
+        <f>SUM(H26,-G26)</f>
         <v>0</v>
       </c>
     </row>
